--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2188757.035841117</v>
+        <v>-2191434.921239979</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>38.52149703343446</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>259.4738383681837</v>
+        <v>87.41182160304203</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>234.1761049339113</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.78116022224987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>90.69811547110066</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>162.4845506711624</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.346902280741</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>77.23851733757584</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>10.12799412870954</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.4198911670927</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>402.9728781178407</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>115.9559123829605</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>147.1578516202944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805175974</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>93.40444476188361</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>32.37373183919225</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>113.0992099793449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>140.3829797864967</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.74007641194018</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>113.5413580759688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>206.485192343033</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>212.5626585298419</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808113</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352489</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.4794605262091</v>
+        <v>886.8720391284728</v>
       </c>
       <c r="C2" t="n">
-        <v>567.5169435857974</v>
+        <v>886.8720391284728</v>
       </c>
       <c r="D2" t="n">
-        <v>567.5169435857974</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="E2" t="n">
-        <v>567.5169435857974</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F2" t="n">
-        <v>156.5310387961899</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>156.5310387961899</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1713.218632566143</v>
+        <v>1887.018649500628</v>
       </c>
       <c r="W2" t="n">
-        <v>1713.218632566143</v>
+        <v>1650.477129365364</v>
       </c>
       <c r="X2" t="n">
-        <v>1713.218632566143</v>
+        <v>1277.011371104285</v>
       </c>
       <c r="Y2" t="n">
-        <v>1323.079300590331</v>
+        <v>886.8720391284728</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.852508549538</v>
+        <v>821.9680821844939</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328577</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1739.316620925522</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764946</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764946</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426274</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056668</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764946</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764946</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1373.778212738967</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="C5" t="n">
-        <v>1373.778212738967</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D5" t="n">
-        <v>1015.512514132216</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>1015.512514132216</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4562,16 +4562,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005981</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270161</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.012626270161</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1747.243971000046</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1373.778212738967</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1373.778212738967</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625333</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.8067472977393</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="C7" t="n">
-        <v>603.8705643698324</v>
+        <v>129.2654909493928</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1626.215822974791</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1403.237342169527</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1403.237342169527</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1403.237342169527</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>1403.237342169527</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X7" t="n">
-        <v>1175.247791271509</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.4552121279791</v>
+        <v>479.8501387075395</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1685.375546116516</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>930.6247765778603</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218339</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612892</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2719.306689612892</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2329.16735763708</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218339</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1720.336906620808</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1720.336906620808</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1465.652418414921</v>
       </c>
       <c r="W10" t="n">
-        <v>1275.367296676419</v>
+        <v>1176.23524837796</v>
       </c>
       <c r="X10" t="n">
-        <v>1047.377745778402</v>
+        <v>1176.23524837796</v>
       </c>
       <c r="Y10" t="n">
-        <v>826.5851666348717</v>
+        <v>955.4426692344304</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400699</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812163</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5358,16 +5358,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>2878.328163333972</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3475.706650960524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.308687575531</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311365</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613763</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2332.274843099484</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1788.515128237795</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1499.097958200834</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302817</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8178837532263</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532263</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429802</v>
@@ -6142,55 +6142,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.258927726996</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.466348583466</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1888.077129657224</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.493192213312</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>2834.086956247061</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>2708.500263796382</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>2585.117117175645</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>2462.757116639391</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>2320.090964315927</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>2202.909080119781</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2249.630143176794</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K28" t="n">
-        <v>2535.361206719452</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>2949.801601912512</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>3395.853105660666</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>3837.304778337793</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>4547.593116654575</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>4648.317395612653</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>4489.992508229214</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>4294.920990213811</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>4030.375710519665</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>3135.611710081895</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,10 +6652,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7084,7 +7084,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7120,22 +7120,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7157,52 +7157,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.086956247061</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796381</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175645</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315927</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119781</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176794</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.361206719452</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337793</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654575</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229214</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.920990213811</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519665</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081895</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7740,10 +7740,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,13 +7825,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.2582814363242</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>129.7511347056862</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,19 +8295,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460938</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>262.4970555289709</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>240.3404368670929</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8343127959625</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>103.9643448906368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664526</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038523</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>134.8730892594356</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>145.8014946027474</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8640922513194</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>80.03780599355795</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>13.1469968591953</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>8.171241461241152e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1103094.30120468</v>
+        <v>1103094.301204679</v>
       </c>
     </row>
     <row r="3">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215494</v>
+        <v>48691.36674215493</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60535.99497675045</v>
+      </c>
+      <c r="I2" t="n">
         <v>60535.99497675046</v>
       </c>
-      <c r="F2" t="n">
-        <v>60535.99497675047</v>
-      </c>
-      <c r="G2" t="n">
-        <v>60535.99497675043</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675043</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675047</v>
-      </c>
       <c r="J2" t="n">
-        <v>61578.1327398212</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982119</v>
@@ -26344,7 +26344,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982125</v>
@@ -26353,7 +26353,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403375</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036145</v>
+        <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081906</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>37450.91375005661</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309562</v>
@@ -26430,34 +26430,34 @@
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="K4" t="n">
+        <v>16718.11565483775</v>
+      </c>
+      <c r="L4" t="n">
         <v>16718.11565483777</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16718.11565483775</v>
       </c>
       <c r="M4" t="n">
         <v>16718.11565483776</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483782</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483774</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1196449.103023666</v>
+        <v>-1196878.661890255</v>
       </c>
       <c r="C6" t="n">
-        <v>-166881.7766770065</v>
+        <v>-166881.7766770066</v>
       </c>
       <c r="D6" t="n">
-        <v>-326897.2394250052</v>
+        <v>-326897.2394250055</v>
       </c>
       <c r="E6" t="n">
-        <v>-374726.2530462563</v>
+        <v>-374760.990971692</v>
       </c>
       <c r="F6" t="n">
-        <v>-49313.79123890092</v>
+        <v>-49348.52916433664</v>
       </c>
       <c r="G6" t="n">
-        <v>-49313.791238901</v>
+        <v>-49348.52916433666</v>
       </c>
       <c r="H6" t="n">
-        <v>-49313.791238901</v>
+        <v>-49348.52916433664</v>
       </c>
       <c r="I6" t="n">
-        <v>-49313.79123890096</v>
+        <v>-49348.52916433663</v>
       </c>
       <c r="J6" t="n">
-        <v>-245336.9945725464</v>
+        <v>-245336.9945725462</v>
       </c>
       <c r="K6" t="n">
-        <v>-58304.09876893197</v>
+        <v>-58304.09876893195</v>
       </c>
       <c r="L6" t="n">
-        <v>-106598.0687771225</v>
+        <v>-106598.0687771226</v>
       </c>
       <c r="M6" t="n">
         <v>-143359.1267044438</v>
       </c>
       <c r="N6" t="n">
+        <v>-58304.09876893196</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-77731.81676256369</v>
+      </c>
+      <c r="P6" t="n">
         <v>-58304.09876893189</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-77731.81676256371</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-58304.09876893192</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203974</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022924</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
         <v>341.306832697356</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>68.27842010195121</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>115.0648637835017</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>220.2492909923182</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.5291434609704</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>71.37695568063651</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5344662330279</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.313950496387861</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.903167623870786</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>103.5930368932087</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>139.3651467162966</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28624,13 +28624,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>658.2124561388958</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>388.514013929771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P27" t="n">
-        <v>533.0479862785273</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>347.4623967873087</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,13 +33652,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>528.9386420741744</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>465.1758167018094</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>538.1269048795938</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422169</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998995</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>526.8707440555626</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>245.9177694853266</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P27" t="n">
-        <v>399.073578864197</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36753,13 +36753,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>208.9080170074345</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
